--- a/Demo/evaluation/eval_results calculos.xlsx
+++ b/Demo/evaluation/eval_results calculos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ainhoaarruabarrenaortiz/Documents/Master/PBL/pbl_glioblastoma/Demo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ainhoaarruabarrenaortiz/Documents/Master/PBL/pbl_glioblastoma/Demo/evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E999E7FB-D26F-7947-A99A-592868BE6F70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0985C143-EA67-8849-AC62-154FB9387226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -91,9 +91,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -124,10 +123,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,7 +431,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E18"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -445,342 +443,342 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>0.97921601436203121</v>
-      </c>
-      <c r="C1" s="2">
-        <v>0.25202401805711688</v>
-      </c>
-      <c r="D1" s="2">
-        <v>2.0783985637968749E-2</v>
-      </c>
-      <c r="E1" s="2">
-        <v>0.78210641348683752</v>
+      <c r="B1">
+        <v>0.86219944748010846</v>
+      </c>
+      <c r="C1">
+        <v>0.32182802164762481</v>
+      </c>
+      <c r="D1">
+        <v>0.13780055251989159</v>
+      </c>
+      <c r="E1">
+        <v>0.65227808259458664</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>0.96348432067358714</v>
-      </c>
-      <c r="C2" s="2">
-        <v>6.3682738330259614E-2</v>
-      </c>
-      <c r="D2" s="2">
-        <v>3.6515679326412871E-2</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.90580046658088931</v>
+      <c r="B2">
+        <v>0.85189729595551178</v>
+      </c>
+      <c r="C2">
+        <v>0.3646020234935835</v>
+      </c>
+      <c r="D2">
+        <v>0.14810270404448819</v>
+      </c>
+      <c r="E2">
+        <v>0.62428259762837546</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.98361289861440171</v>
-      </c>
-      <c r="C3" s="2">
-        <v>9.1696290986148218E-2</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1.638710138559827E-2</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.90099499900827462</v>
+      <c r="B3">
+        <v>0.91935527950571705</v>
+      </c>
+      <c r="C3">
+        <v>0.1936610613459917</v>
+      </c>
+      <c r="D3">
+        <v>8.0644720494282909E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.77019793078366572</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.97615543016172557</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3.5258130700935718E-2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2.384456983827438E-2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.94291017980298908</v>
+      <c r="B4">
+        <v>0.96246102743556317</v>
+      </c>
+      <c r="C4">
+        <v>0.2338914958918662</v>
+      </c>
+      <c r="D4">
+        <v>3.7538972564436821E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.78002079651249157</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <v>0.98682629319212678</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.43534375847210771</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1.317370680787327E-2</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.68751913077782978</v>
+      <c r="B5">
+        <v>0.87855540109481267</v>
+      </c>
+      <c r="C5">
+        <v>0.38113380594475182</v>
+      </c>
+      <c r="D5">
+        <v>0.1214445989051874</v>
+      </c>
+      <c r="E5">
+        <v>0.6361117201774994</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.98837531702205594</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.14864497702604329</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1.162468297794407E-2</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.86047067352443263</v>
+      <c r="B6">
+        <v>0.91689501527733341</v>
+      </c>
+      <c r="C6">
+        <v>0.37417551082859252</v>
+      </c>
+      <c r="D6">
+        <v>8.3104984722666558E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.66723283019682789</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
-        <v>0.91341655104383224</v>
-      </c>
-      <c r="C7" s="2">
-        <v>4.1658792021793947E-3</v>
-      </c>
-      <c r="D7" s="2">
-        <v>8.6583448956167805E-2</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.90962715420041107</v>
+      <c r="B7">
+        <v>0.89151543507220854</v>
+      </c>
+      <c r="C7">
+        <v>0.54196302220419379</v>
+      </c>
+      <c r="D7">
+        <v>0.1084845649277914</v>
+      </c>
+      <c r="E7">
+        <v>0.57816914039729161</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
-        <v>0.91039688449069733</v>
-      </c>
-      <c r="C8" s="2">
-        <v>8.0465577143725188E-3</v>
-      </c>
-      <c r="D8" s="2">
-        <v>8.960311550930268E-2</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.90312979844394847</v>
+      <c r="B8">
+        <v>0.95064923706157944</v>
+      </c>
+      <c r="C8">
+        <v>0.63086301402968892</v>
+      </c>
+      <c r="D8">
+        <v>4.9350762938420577E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.58291176443607384</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
-        <v>0.56095344408431924</v>
-      </c>
-      <c r="C9" s="2">
-        <v>4.2975612237874201E-3</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.43904655591568081</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.55855302824868858</v>
+      <c r="B9">
+        <v>0.86045196218385545</v>
+      </c>
+      <c r="C9">
+        <v>0.35381258922078268</v>
+      </c>
+      <c r="D9">
+        <v>0.13954803781614461</v>
+      </c>
+      <c r="E9">
+        <v>0.63557686568648908</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
-        <v>0.92209743776133213</v>
-      </c>
-      <c r="C10" s="2">
-        <v>7.7487179643809427E-3</v>
-      </c>
-      <c r="D10" s="2">
-        <v>7.7902562238667844E-2</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.91500730422553989</v>
+      <c r="B10">
+        <v>0.73442697054754147</v>
+      </c>
+      <c r="C10">
+        <v>0.43089326601691869</v>
+      </c>
+      <c r="D10">
+        <v>0.26557302945245848</v>
+      </c>
+      <c r="E10">
+        <v>0.51326467738010706</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
-        <v>0.26380543544173529</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.20473970352325749</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.73619456455826471</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.2189729737222382</v>
+      <c r="B11">
+        <v>0.26646585653765348</v>
+      </c>
+      <c r="C11">
+        <v>9.2574095702099637E-2</v>
+      </c>
+      <c r="D11">
+        <v>0.73353414346234658</v>
+      </c>
+      <c r="E11">
+        <v>0.2438881331580717</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
-        <v>0.89784503357899237</v>
-      </c>
-      <c r="C12" s="2">
-        <v>5.1668050070847061E-3</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.1021549664210076</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.89322988891646105</v>
+      <c r="B12">
+        <v>0.97574116926998178</v>
+      </c>
+      <c r="C12">
+        <v>0.59137070201473951</v>
+      </c>
+      <c r="D12">
+        <v>2.425883073001819E-2</v>
+      </c>
+      <c r="E12">
+        <v>0.61314511322512977</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
-        <v>0.97184717985248559</v>
-      </c>
-      <c r="C13" s="2">
-        <v>9.3456328125516658E-2</v>
-      </c>
-      <c r="D13" s="2">
-        <v>2.8152820147514392E-2</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.88878463168117339</v>
+      <c r="B13">
+        <v>0.97268045571308859</v>
+      </c>
+      <c r="C13">
+        <v>0.25399230778678339</v>
+      </c>
+      <c r="D13">
+        <v>2.731954428691143E-2</v>
+      </c>
+      <c r="E13">
+        <v>0.77566700343625528</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
-        <v>0.97266910917448735</v>
-      </c>
-      <c r="C14" s="2">
-        <v>3.2864240878741589E-2</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2.733089082551269E-2</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.94172019000963636</v>
+      <c r="B14">
+        <v>0.95421350137412986</v>
+      </c>
+      <c r="C14">
+        <v>0.23350386457586131</v>
+      </c>
+      <c r="D14">
+        <v>4.5786498625870121E-2</v>
+      </c>
+      <c r="E14">
+        <v>0.77357966097839104</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
-        <v>0.98249202946649117</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.15658008799323911</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1.7507970533508881E-2</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.8494803253713239</v>
+      <c r="B15">
+        <v>0.91789933370329668</v>
+      </c>
+      <c r="C15">
+        <v>0.2116059672908891</v>
+      </c>
+      <c r="D15">
+        <v>8.2100666296703331E-2</v>
+      </c>
+      <c r="E15">
+        <v>0.7575889839463974</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="2">
-        <v>0.98930865657909872</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.12738018959370431</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1.0691343420901309E-2</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.87752886356432691</v>
+      <c r="B16">
+        <v>0.92734158082376328</v>
+      </c>
+      <c r="C16">
+        <v>0.2180218071094901</v>
+      </c>
+      <c r="D16">
+        <v>7.2658419176236708E-2</v>
+      </c>
+      <c r="E16">
+        <v>0.76135055662464257</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2">
-        <v>0.98888940690495553</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.1520044347852188</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1.1110593095044519E-2</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.85840763893354743</v>
+      <c r="B17">
+        <v>0.92070394551549584</v>
+      </c>
+      <c r="C17">
+        <v>0.1650309777155875</v>
+      </c>
+      <c r="D17">
+        <v>7.9296054484504122E-2</v>
+      </c>
+      <c r="E17">
+        <v>0.79028280202542578</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="2">
-        <v>0.9774012891113667</v>
-      </c>
-      <c r="C18" s="2">
-        <v>5.0908090423615687E-2</v>
-      </c>
-      <c r="D18" s="2">
-        <v>2.2598710888633269E-2</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.93005401520639286</v>
+      <c r="B18">
+        <v>0.87576013872962644</v>
+      </c>
+      <c r="C18">
+        <v>0.15987354648287669</v>
+      </c>
+      <c r="D18">
+        <v>0.12423986127037349</v>
+      </c>
+      <c r="E18">
+        <v>0.7550479458603252</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B21">
+      <c r="B21" s="1">
         <f>AVERAGE(B1:B18)</f>
-        <v>0.90159959619531782</v>
-      </c>
-      <c r="C21">
+        <v>0.86884516962673708</v>
+      </c>
+      <c r="C21" s="1">
         <f t="shared" ref="C21:E21" si="0">AVERAGE(C1:C18)</f>
-        <v>0.10411158388931722</v>
-      </c>
-      <c r="D21">
+        <v>0.31959983773901784</v>
+      </c>
+      <c r="D21" s="1">
         <f t="shared" si="0"/>
-        <v>9.840040380468211E-2</v>
-      </c>
-      <c r="E21">
+        <v>0.13115483037326292</v>
+      </c>
+      <c r="E21" s="1">
         <f t="shared" si="0"/>
-        <v>0.82357209309471879</v>
+        <v>0.66169981139155809</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <f>STDEV(B1:B18)</f>
-        <v>0.18755271448224436</v>
+        <v>0.16093780635595928</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" ref="C22:E22" si="1">STDEV(C1:C18)</f>
-        <v>0.11169714381776037</v>
+        <v>0.15346780236223775</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="1"/>
-        <v>0.18755271448224439</v>
+        <v>0.16093780635595903</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="1"/>
-        <v>0.17915775957985011</v>
+        <v>0.13517928151325626</v>
       </c>
     </row>
   </sheetData>

--- a/Demo/evaluation/eval_results calculos.xlsx
+++ b/Demo/evaluation/eval_results calculos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ainhoaarruabarrenaortiz/Documents/Master/PBL/pbl_glioblastoma/Demo/evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0985C143-EA67-8849-AC62-154FB9387226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47375BA-B37F-4C42-BA81-6EF4416FCF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11600" yWindow="500" windowWidth="14000" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -125,7 +125,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,7 +431,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -444,16 +444,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.86219944748010846</v>
+        <v>0.86219900000000005</v>
       </c>
       <c r="C1">
-        <v>0.32182802164762481</v>
+        <v>0.321828</v>
       </c>
       <c r="D1">
-        <v>0.13780055251989159</v>
+        <v>0.13780100000000001</v>
       </c>
       <c r="E1">
-        <v>0.65227808259458664</v>
+        <v>0.65227800000000002</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -461,16 +461,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.85189729595551178</v>
+        <v>0.85189700000000002</v>
       </c>
       <c r="C2">
-        <v>0.3646020234935835</v>
+        <v>0.36460199999999998</v>
       </c>
       <c r="D2">
-        <v>0.14810270404448819</v>
+        <v>0.14810300000000001</v>
       </c>
       <c r="E2">
-        <v>0.62428259762837546</v>
+        <v>0.62428300000000003</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -478,16 +478,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.91935527950571705</v>
+        <v>0.91935500000000003</v>
       </c>
       <c r="C3">
-        <v>0.1936610613459917</v>
+        <v>0.193661</v>
       </c>
       <c r="D3">
-        <v>8.0644720494282909E-2</v>
+        <v>8.0644999999999994E-2</v>
       </c>
       <c r="E3">
-        <v>0.77019793078366572</v>
+        <v>0.77019800000000005</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -495,16 +495,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.96246102743556317</v>
+        <v>0.96246100000000001</v>
       </c>
       <c r="C4">
-        <v>0.2338914958918662</v>
+        <v>0.23389099999999999</v>
       </c>
       <c r="D4">
-        <v>3.7538972564436821E-2</v>
+        <v>3.7539000000000003E-2</v>
       </c>
       <c r="E4">
-        <v>0.78002079651249157</v>
+        <v>0.78002099999999996</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -512,16 +512,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.87855540109481267</v>
+        <v>0.87855499999999997</v>
       </c>
       <c r="C5">
-        <v>0.38113380594475182</v>
+        <v>0.38113399999999997</v>
       </c>
       <c r="D5">
-        <v>0.1214445989051874</v>
+        <v>0.121445</v>
       </c>
       <c r="E5">
-        <v>0.6361117201774994</v>
+        <v>0.63611200000000001</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -529,16 +529,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.91689501527733341</v>
+        <v>0.91689500000000002</v>
       </c>
       <c r="C6">
-        <v>0.37417551082859252</v>
+        <v>0.37417600000000001</v>
       </c>
       <c r="D6">
-        <v>8.3104984722666558E-2</v>
+        <v>8.3104999999999998E-2</v>
       </c>
       <c r="E6">
-        <v>0.66723283019682789</v>
+        <v>0.66723299999999997</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -546,16 +546,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.89151543507220854</v>
+        <v>0.89151499999999995</v>
       </c>
       <c r="C7">
-        <v>0.54196302220419379</v>
+        <v>0.54196299999999997</v>
       </c>
       <c r="D7">
-        <v>0.1084845649277914</v>
+        <v>0.108485</v>
       </c>
       <c r="E7">
-        <v>0.57816914039729161</v>
+        <v>0.57816900000000004</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -563,16 +563,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.95064923706157944</v>
+        <v>0.95064899999999997</v>
       </c>
       <c r="C8">
-        <v>0.63086301402968892</v>
+        <v>0.63086299999999995</v>
       </c>
       <c r="D8">
-        <v>4.9350762938420577E-2</v>
+        <v>4.9350999999999999E-2</v>
       </c>
       <c r="E8">
-        <v>0.58291176443607384</v>
+        <v>0.58291199999999999</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -580,16 +580,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.86045196218385545</v>
+        <v>0.86045199999999999</v>
       </c>
       <c r="C9">
-        <v>0.35381258922078268</v>
+        <v>0.35381299999999999</v>
       </c>
       <c r="D9">
-        <v>0.13954803781614461</v>
+        <v>0.13954800000000001</v>
       </c>
       <c r="E9">
-        <v>0.63557686568648908</v>
+        <v>0.63557699999999995</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -597,16 +597,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.73442697054754147</v>
+        <v>0.73442700000000005</v>
       </c>
       <c r="C10">
-        <v>0.43089326601691869</v>
+        <v>0.43089300000000003</v>
       </c>
       <c r="D10">
-        <v>0.26557302945245848</v>
+        <v>0.265573</v>
       </c>
       <c r="E10">
-        <v>0.51326467738010706</v>
+        <v>0.51326499999999997</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -614,16 +614,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.26646585653765348</v>
+        <v>0.26646599999999998</v>
       </c>
       <c r="C11">
-        <v>9.2574095702099637E-2</v>
+        <v>9.2574000000000004E-2</v>
       </c>
       <c r="D11">
-        <v>0.73353414346234658</v>
+        <v>0.73353400000000002</v>
       </c>
       <c r="E11">
-        <v>0.2438881331580717</v>
+        <v>0.24388799999999999</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -631,16 +631,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.97574116926998178</v>
+        <v>0.97574099999999997</v>
       </c>
       <c r="C12">
-        <v>0.59137070201473951</v>
+        <v>0.59137099999999998</v>
       </c>
       <c r="D12">
-        <v>2.425883073001819E-2</v>
+        <v>2.4258999999999999E-2</v>
       </c>
       <c r="E12">
-        <v>0.61314511322512977</v>
+        <v>0.61314500000000005</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -648,16 +648,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.97268045571308859</v>
+        <v>0.97267999999999999</v>
       </c>
       <c r="C13">
-        <v>0.25399230778678339</v>
+        <v>0.253992</v>
       </c>
       <c r="D13">
-        <v>2.731954428691143E-2</v>
+        <v>2.7320000000000001E-2</v>
       </c>
       <c r="E13">
-        <v>0.77566700343625528</v>
+        <v>0.775667</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -665,16 +665,16 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.95421350137412986</v>
+        <v>0.95421400000000001</v>
       </c>
       <c r="C14">
-        <v>0.23350386457586131</v>
+        <v>0.23350399999999999</v>
       </c>
       <c r="D14">
-        <v>4.5786498625870121E-2</v>
+        <v>4.5786E-2</v>
       </c>
       <c r="E14">
-        <v>0.77357966097839104</v>
+        <v>0.77358000000000005</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -682,16 +682,16 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.91789933370329668</v>
+        <v>0.91789900000000002</v>
       </c>
       <c r="C15">
-        <v>0.2116059672908891</v>
+        <v>0.21160599999999999</v>
       </c>
       <c r="D15">
-        <v>8.2100666296703331E-2</v>
+        <v>8.2100999999999993E-2</v>
       </c>
       <c r="E15">
-        <v>0.7575889839463974</v>
+        <v>0.75758899999999996</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -699,16 +699,16 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.92734158082376328</v>
+        <v>0.927342</v>
       </c>
       <c r="C16">
-        <v>0.2180218071094901</v>
+        <v>0.21802199999999999</v>
       </c>
       <c r="D16">
-        <v>7.2658419176236708E-2</v>
+        <v>7.2658E-2</v>
       </c>
       <c r="E16">
-        <v>0.76135055662464257</v>
+        <v>0.761351</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -716,16 +716,16 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.92070394551549584</v>
+        <v>0.92070399999999997</v>
       </c>
       <c r="C17">
-        <v>0.1650309777155875</v>
+        <v>0.16503100000000001</v>
       </c>
       <c r="D17">
-        <v>7.9296054484504122E-2</v>
+        <v>7.9296000000000005E-2</v>
       </c>
       <c r="E17">
-        <v>0.79028280202542578</v>
+        <v>0.79028299999999996</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -733,52 +733,52 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.87576013872962644</v>
+        <v>0.87575999999999998</v>
       </c>
       <c r="C18">
-        <v>0.15987354648287669</v>
+        <v>0.15987399999999999</v>
       </c>
       <c r="D18">
-        <v>0.12423986127037349</v>
+        <v>0.12424</v>
       </c>
       <c r="E18">
-        <v>0.7550479458603252</v>
+        <v>0.75504800000000005</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <f>AVERAGE(B1:B18)</f>
-        <v>0.86884516962673708</v>
+        <v>0.86884505555555558</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" ref="C21:E21" si="0">AVERAGE(C1:C18)</f>
-        <v>0.31959983773901784</v>
+        <v>0.31959988888888891</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="0"/>
-        <v>0.13115483037326292</v>
+        <v>0.13115494444444445</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="0"/>
-        <v>0.66169981139155809</v>
+        <v>0.66169994444444447</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <f>STDEV(B1:B18)</f>
-        <v>0.16093780635595928</v>
+        <v>0.16093775295380558</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" ref="C22:E22" si="1">STDEV(C1:C18)</f>
-        <v>0.15346780236223775</v>
+        <v>0.15346783116298102</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="1"/>
-        <v>0.16093780635595903</v>
+        <v>0.16093775295380594</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="1"/>
-        <v>0.13517928151325626</v>
+        <v>0.13517933710944816</v>
       </c>
     </row>
   </sheetData>

--- a/Demo/evaluation/eval_results calculos.xlsx
+++ b/Demo/evaluation/eval_results calculos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ainhoaarruabarrenaortiz/Documents/Master/PBL/pbl_glioblastoma/Demo/evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47375BA-B37F-4C42-BA81-6EF4416FCF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BB44B6-E766-B040-B4A9-93D92EC929E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11600" yWindow="500" windowWidth="14000" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -431,7 +431,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B1" sqref="B1:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -443,16 +443,16 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1">
         <v>0.86219900000000005</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <v>0.321828</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="1">
         <v>0.13780100000000001</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="1">
         <v>0.65227800000000002</v>
       </c>
     </row>
@@ -460,16 +460,16 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>0.85189700000000002</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>0.36460199999999998</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>0.14810300000000001</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>0.62428300000000003</v>
       </c>
     </row>
@@ -477,16 +477,16 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>0.91935500000000003</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>0.193661</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>8.0644999999999994E-2</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>0.77019800000000005</v>
       </c>
     </row>
@@ -494,16 +494,16 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>0.96246100000000001</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>0.23389099999999999</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>3.7539000000000003E-2</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>0.78002099999999996</v>
       </c>
     </row>
@@ -511,16 +511,16 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>0.87855499999999997</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>0.38113399999999997</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>0.121445</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>0.63611200000000001</v>
       </c>
     </row>
@@ -528,16 +528,16 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>0.91689500000000002</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>0.37417600000000001</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>8.3104999999999998E-2</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>0.66723299999999997</v>
       </c>
     </row>
@@ -545,16 +545,16 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>0.89151499999999995</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>0.54196299999999997</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>0.108485</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>0.57816900000000004</v>
       </c>
     </row>
@@ -562,16 +562,16 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>0.95064899999999997</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>0.63086299999999995</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>4.9350999999999999E-2</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>0.58291199999999999</v>
       </c>
     </row>
@@ -579,16 +579,16 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>0.86045199999999999</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>0.35381299999999999</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>0.13954800000000001</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>0.63557699999999995</v>
       </c>
     </row>
@@ -596,16 +596,16 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>0.73442700000000005</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>0.43089300000000003</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>0.265573</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>0.51326499999999997</v>
       </c>
     </row>
@@ -613,16 +613,16 @@
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>0.26646599999999998</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>9.2574000000000004E-2</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>0.73353400000000002</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>0.24388799999999999</v>
       </c>
     </row>
@@ -630,16 +630,16 @@
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>0.97574099999999997</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>0.59137099999999998</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>2.4258999999999999E-2</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>0.61314500000000005</v>
       </c>
     </row>
@@ -647,16 +647,16 @@
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>0.97267999999999999</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>0.253992</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>2.7320000000000001E-2</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>0.775667</v>
       </c>
     </row>
@@ -664,16 +664,16 @@
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>0.95421400000000001</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>0.23350399999999999</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>4.5786E-2</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>0.77358000000000005</v>
       </c>
     </row>
@@ -681,16 +681,16 @@
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>0.91789900000000002</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>0.21160599999999999</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>8.2100999999999993E-2</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>0.75758899999999996</v>
       </c>
     </row>
@@ -698,16 +698,16 @@
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>0.927342</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>0.21802199999999999</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>7.2658E-2</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>0.761351</v>
       </c>
     </row>
@@ -715,16 +715,16 @@
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>0.92070399999999997</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>0.16503100000000001</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>7.9296000000000005E-2</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>0.79028299999999996</v>
       </c>
     </row>
@@ -732,16 +732,16 @@
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>0.87575999999999998</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>0.15987399999999999</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>0.12424</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>0.75504800000000005</v>
       </c>
     </row>
